--- a/Test Plan for Professional Practices.xlsx
+++ b/Test Plan for Professional Practices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Purpose:</t>
   </si>
@@ -144,16 +144,6 @@
   </si>
   <si>
     <t>1. Launch Home page
-2. Retrieve Login panel</t>
-  </si>
-  <si>
-    <t>Company logo is displayed on the left hand side of login panel</t>
-  </si>
-  <si>
-    <t>Company logo is not displayed on the left hand side of page</t>
-  </si>
-  <si>
-    <t>1. Launch Home page
 2. Add Markers</t>
   </si>
   <si>
@@ -167,6 +157,18 @@
   </si>
   <si>
     <t>The user clicked the desired marker and it was added to the users location</t>
+  </si>
+  <si>
+    <t>If the user selects pothole markers an orange "p" marker will be added to the screen</t>
+  </si>
+  <si>
+    <t>The user selected pothole marker and an orange "p" marker landed on the map in the users location</t>
+  </si>
+  <si>
+    <t>If the user selects Accident markers a red "A" marker will be added to the screen</t>
+  </si>
+  <si>
+    <t>The user selected Accident marker and a re "A" marker was added to the users location</t>
   </si>
 </sst>
 </file>
@@ -856,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1034,16 +1036,16 @@
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>12</v>
@@ -1068,16 +1070,16 @@
         <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>12</v>
@@ -1085,7 +1087,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -1105,13 +1107,13 @@
         <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>12</v>
@@ -1119,7 +1121,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -1139,13 +1141,13 @@
         <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>12</v>
